--- a/IBK/excel/BL_result_0724_SAMPLE_1.1.1.xlsx
+++ b/IBK/excel/BL_result_0724_SAMPLE_1.1.1.xlsx
@@ -5980,7 +5980,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -5988,11 +5988,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6005,11 +6014,14 @@
     <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -6047,96 +6059,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6437,8 +6359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J479"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="A247" sqref="A247"/>
+    <sheetView tabSelected="1" topLeftCell="A442" workbookViewId="0">
+      <selection activeCell="A139" sqref="A139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -10367,36 +10289,36 @@
         <v>100</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A136" s="3" t="s">
+    <row r="136" spans="1:10" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="B136" s="3" t="s">
+      <c r="B136" s="12" t="s">
         <v>679</v>
       </c>
-      <c r="C136" s="3" t="s">
+      <c r="C136" s="12" t="s">
         <v>923</v>
       </c>
-      <c r="D136" s="3" t="s">
+      <c r="D136" s="12" t="s">
         <v>924</v>
       </c>
-      <c r="E136" s="3" t="s">
+      <c r="E136" s="12" t="s">
         <v>925</v>
       </c>
-      <c r="F136" s="3" t="s">
+      <c r="F136" s="12" t="s">
         <v>635</v>
       </c>
-      <c r="G136" s="3" t="s">
+      <c r="G136" s="12" t="s">
         <v>926</v>
       </c>
-      <c r="H136" s="3" t="s">
+      <c r="H136" s="12" t="s">
         <v>927</v>
       </c>
-      <c r="I136" s="2">
+      <c r="I136" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J136" s="10">
+      <c r="J136" s="14">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
@@ -20104,18 +20026,18 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I478">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
